--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3227.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3227.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.38913805776795</v>
+        <v>1.329339861869812</v>
       </c>
       <c r="B1">
-        <v>3.000026180099832</v>
+        <v>1.545700430870056</v>
       </c>
       <c r="C1">
-        <v>4.204790503031054</v>
+        <v>1.976040959358215</v>
       </c>
       <c r="D1">
-        <v>3.069269196507738</v>
+        <v>1.931671142578125</v>
       </c>
       <c r="E1">
-        <v>1.231194769507074</v>
+        <v>1.607928276062012</v>
       </c>
     </row>
   </sheetData>
